--- a/results_files/Complete/Easy/2-mst_file.xlsx
+++ b/results_files/Complete/Easy/2-mst_file.xlsx
@@ -580,9 +580,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -606,8 +612,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +644,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0">
@@ -648,10 +655,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0">
@@ -659,10 +666,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0">
@@ -670,10 +677,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="0">
@@ -681,10 +688,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="0">
@@ -692,10 +699,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="0">
@@ -703,10 +710,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="0">
@@ -714,10 +721,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0">
@@ -725,10 +732,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="0">
@@ -736,10 +743,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="0">
@@ -747,10 +754,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="0">
@@ -758,10 +765,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="0">
@@ -769,10 +776,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="0">
@@ -780,10 +787,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="0">
@@ -791,10 +798,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0">
@@ -802,10 +809,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="0">
@@ -813,10 +820,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="0">
@@ -824,10 +831,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="0">
@@ -835,10 +842,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="0">
@@ -846,10 +853,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="0">
@@ -857,10 +864,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="0">
@@ -868,10 +875,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="0">
@@ -879,10 +886,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="0">
@@ -890,10 +897,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="0">
@@ -901,10 +908,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="0">
@@ -912,10 +919,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="0">
@@ -923,10 +930,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="0">
@@ -934,10 +941,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="0">
@@ -945,10 +952,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="0">
@@ -956,10 +963,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="0">
@@ -967,10 +974,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="0">
@@ -978,10 +985,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="0">
@@ -989,10 +996,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="0">
@@ -1000,10 +1007,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="0">
@@ -1011,10 +1018,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="0">
@@ -1022,10 +1029,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="0">
@@ -1033,10 +1040,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="0">
@@ -1044,10 +1051,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="0">
@@ -1055,10 +1062,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="0">
@@ -1066,10 +1073,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="0">
@@ -1077,10 +1084,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="0">
@@ -1088,10 +1095,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="0">
@@ -1099,10 +1106,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="0">
@@ -1110,10 +1117,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="0">
@@ -1121,10 +1128,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="0">
@@ -1132,10 +1139,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="0">
@@ -1143,10 +1150,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="0">
@@ -1154,10 +1161,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="0">
@@ -1165,10 +1172,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="0">
@@ -1176,10 +1183,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="0">
@@ -1187,10 +1194,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C52" s="0">
@@ -1198,10 +1205,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="0">
@@ -1209,10 +1216,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="0">
@@ -1220,10 +1227,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="0">
@@ -1231,10 +1238,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C56" s="0">
@@ -1242,10 +1249,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C57" s="0">
@@ -1253,10 +1260,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C58" s="0">
@@ -1264,10 +1271,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C59" s="0">
@@ -1275,10 +1282,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C60" s="0">
@@ -1286,10 +1293,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C61" s="0">
@@ -1297,10 +1304,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="0">
@@ -1308,10 +1315,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="0">
@@ -1319,10 +1326,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="0">
@@ -1330,10 +1337,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C65" s="0">
@@ -1341,10 +1348,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C66" s="0">
@@ -1352,10 +1359,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="0">
@@ -1363,10 +1370,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C68" s="0">
@@ -1374,10 +1381,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="0">
@@ -1385,10 +1392,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="0">
@@ -1396,10 +1403,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="0">
@@ -1407,10 +1414,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C72" s="0">
@@ -1418,10 +1425,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C73" s="0">
@@ -1429,10 +1436,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="0">
@@ -1440,10 +1447,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="0">
@@ -1451,10 +1458,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="0">
@@ -1462,10 +1469,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C77" s="0">
@@ -1473,10 +1480,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C78" s="0">
@@ -1484,10 +1491,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C79" s="0">
@@ -1495,10 +1502,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C80" s="0">
@@ -1506,10 +1513,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C81" s="0">
@@ -1517,10 +1524,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C82" s="0">
@@ -1528,10 +1535,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C83" s="0">
@@ -1539,10 +1546,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C84" s="0">
@@ -1550,10 +1557,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="0">
@@ -1561,10 +1568,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C86" s="0">
@@ -1572,10 +1579,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C87" s="0">
@@ -1583,10 +1590,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C88" s="0">
@@ -1594,10 +1601,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C89" s="0">
@@ -1605,10 +1612,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C90" s="0">
@@ -1616,10 +1623,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C91" s="0">
@@ -1627,10 +1634,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C92" s="0">
@@ -1638,10 +1645,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C93" s="0">
@@ -1649,10 +1656,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C94" s="0">
@@ -1660,10 +1667,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C95" s="0">
@@ -1671,10 +1678,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C96" s="0">
@@ -1682,10 +1689,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C97" s="0">
@@ -1693,10 +1700,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C98" s="0">
@@ -1704,10 +1711,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C99" s="0">
@@ -1715,10 +1722,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C100" s="0">
@@ -1726,10 +1733,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="0">
@@ -1737,10 +1744,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C102" s="0">
@@ -1748,10 +1755,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C103" s="0">
@@ -1759,10 +1766,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C104" s="0">
@@ -1770,10 +1777,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C105" s="0">
@@ -1781,6 +1788,216 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="B13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="B14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="B15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="B16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="B17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33"/>
+    <hyperlink ref="B18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="B19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="B20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="B21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="B22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="B23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="B24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="B25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="B26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="B27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53"/>
+    <hyperlink ref="B28" r:id="rId54"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="B29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="B30" r:id="rId58"/>
+    <hyperlink ref="A31" r:id="rId59"/>
+    <hyperlink ref="B31" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="B32" r:id="rId62"/>
+    <hyperlink ref="A33" r:id="rId63"/>
+    <hyperlink ref="B33" r:id="rId64"/>
+    <hyperlink ref="A34" r:id="rId65"/>
+    <hyperlink ref="B34" r:id="rId66"/>
+    <hyperlink ref="A35" r:id="rId67"/>
+    <hyperlink ref="B35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="B36" r:id="rId70"/>
+    <hyperlink ref="A37" r:id="rId71"/>
+    <hyperlink ref="B37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="B38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="B39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="B40" r:id="rId78"/>
+    <hyperlink ref="A41" r:id="rId79"/>
+    <hyperlink ref="B41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="B42" r:id="rId82"/>
+    <hyperlink ref="A43" r:id="rId83"/>
+    <hyperlink ref="B43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="B44" r:id="rId86"/>
+    <hyperlink ref="A45" r:id="rId87"/>
+    <hyperlink ref="B45" r:id="rId88"/>
+    <hyperlink ref="A46" r:id="rId89"/>
+    <hyperlink ref="B46" r:id="rId90"/>
+    <hyperlink ref="A47" r:id="rId91"/>
+    <hyperlink ref="B47" r:id="rId92"/>
+    <hyperlink ref="A48" r:id="rId93"/>
+    <hyperlink ref="B48" r:id="rId94"/>
+    <hyperlink ref="A49" r:id="rId95"/>
+    <hyperlink ref="B49" r:id="rId96"/>
+    <hyperlink ref="A50" r:id="rId97"/>
+    <hyperlink ref="B50" r:id="rId98"/>
+    <hyperlink ref="A51" r:id="rId99"/>
+    <hyperlink ref="B51" r:id="rId100"/>
+    <hyperlink ref="A52" r:id="rId101"/>
+    <hyperlink ref="B52" r:id="rId102"/>
+    <hyperlink ref="A53" r:id="rId103"/>
+    <hyperlink ref="B53" r:id="rId104"/>
+    <hyperlink ref="A54" r:id="rId105"/>
+    <hyperlink ref="B54" r:id="rId106"/>
+    <hyperlink ref="A55" r:id="rId107"/>
+    <hyperlink ref="B55" r:id="rId108"/>
+    <hyperlink ref="A56" r:id="rId109"/>
+    <hyperlink ref="B56" r:id="rId110"/>
+    <hyperlink ref="A57" r:id="rId111"/>
+    <hyperlink ref="B57" r:id="rId112"/>
+    <hyperlink ref="A58" r:id="rId113"/>
+    <hyperlink ref="B58" r:id="rId114"/>
+    <hyperlink ref="A59" r:id="rId115"/>
+    <hyperlink ref="B59" r:id="rId116"/>
+    <hyperlink ref="A60" r:id="rId117"/>
+    <hyperlink ref="B60" r:id="rId118"/>
+    <hyperlink ref="A61" r:id="rId119"/>
+    <hyperlink ref="B61" r:id="rId120"/>
+    <hyperlink ref="A62" r:id="rId121"/>
+    <hyperlink ref="B62" r:id="rId122"/>
+    <hyperlink ref="A63" r:id="rId123"/>
+    <hyperlink ref="B63" r:id="rId124"/>
+    <hyperlink ref="A64" r:id="rId125"/>
+    <hyperlink ref="B64" r:id="rId126"/>
+    <hyperlink ref="A65" r:id="rId127"/>
+    <hyperlink ref="B65" r:id="rId128"/>
+    <hyperlink ref="A66" r:id="rId129"/>
+    <hyperlink ref="B66" r:id="rId130"/>
+    <hyperlink ref="A67" r:id="rId131"/>
+    <hyperlink ref="B67" r:id="rId132"/>
+    <hyperlink ref="A68" r:id="rId133"/>
+    <hyperlink ref="B68" r:id="rId134"/>
+    <hyperlink ref="A69" r:id="rId135"/>
+    <hyperlink ref="B69" r:id="rId136"/>
+    <hyperlink ref="A70" r:id="rId137"/>
+    <hyperlink ref="B70" r:id="rId138"/>
+    <hyperlink ref="A71" r:id="rId139"/>
+    <hyperlink ref="B71" r:id="rId140"/>
+    <hyperlink ref="A72" r:id="rId141"/>
+    <hyperlink ref="B72" r:id="rId142"/>
+    <hyperlink ref="A73" r:id="rId143"/>
+    <hyperlink ref="B73" r:id="rId144"/>
+    <hyperlink ref="A74" r:id="rId145"/>
+    <hyperlink ref="B74" r:id="rId146"/>
+    <hyperlink ref="A75" r:id="rId147"/>
+    <hyperlink ref="B75" r:id="rId148"/>
+    <hyperlink ref="A76" r:id="rId149"/>
+    <hyperlink ref="B76" r:id="rId150"/>
+    <hyperlink ref="A77" r:id="rId151"/>
+    <hyperlink ref="B77" r:id="rId152"/>
+    <hyperlink ref="A78" r:id="rId153"/>
+    <hyperlink ref="B78" r:id="rId154"/>
+    <hyperlink ref="A79" r:id="rId155"/>
+    <hyperlink ref="B79" r:id="rId156"/>
+    <hyperlink ref="A80" r:id="rId157"/>
+    <hyperlink ref="B80" r:id="rId158"/>
+    <hyperlink ref="A81" r:id="rId159"/>
+    <hyperlink ref="B81" r:id="rId160"/>
+    <hyperlink ref="A82" r:id="rId161"/>
+    <hyperlink ref="B82" r:id="rId162"/>
+    <hyperlink ref="A83" r:id="rId163"/>
+    <hyperlink ref="B83" r:id="rId164"/>
+    <hyperlink ref="A84" r:id="rId165"/>
+    <hyperlink ref="B84" r:id="rId166"/>
+    <hyperlink ref="A85" r:id="rId167"/>
+    <hyperlink ref="B85" r:id="rId168"/>
+    <hyperlink ref="A86" r:id="rId169"/>
+    <hyperlink ref="B86" r:id="rId170"/>
+    <hyperlink ref="A87" r:id="rId171"/>
+    <hyperlink ref="B87" r:id="rId172"/>
+    <hyperlink ref="A88" r:id="rId173"/>
+    <hyperlink ref="B88" r:id="rId174"/>
+    <hyperlink ref="A89" r:id="rId175"/>
+    <hyperlink ref="B89" r:id="rId176"/>
+    <hyperlink ref="A90" r:id="rId177"/>
+    <hyperlink ref="B90" r:id="rId178"/>
+    <hyperlink ref="A91" r:id="rId179"/>
+    <hyperlink ref="B91" r:id="rId180"/>
+    <hyperlink ref="A92" r:id="rId181"/>
+    <hyperlink ref="B92" r:id="rId182"/>
+    <hyperlink ref="A93" r:id="rId183"/>
+    <hyperlink ref="B93" r:id="rId184"/>
+    <hyperlink ref="A94" r:id="rId185"/>
+    <hyperlink ref="B94" r:id="rId186"/>
+    <hyperlink ref="A95" r:id="rId187"/>
+    <hyperlink ref="B95" r:id="rId188"/>
+    <hyperlink ref="A96" r:id="rId189"/>
+    <hyperlink ref="B96" r:id="rId190"/>
+    <hyperlink ref="A97" r:id="rId191"/>
+    <hyperlink ref="B97" r:id="rId192"/>
+    <hyperlink ref="A98" r:id="rId193"/>
+    <hyperlink ref="B98" r:id="rId194"/>
+    <hyperlink ref="A99" r:id="rId195"/>
+    <hyperlink ref="B99" r:id="rId196"/>
+    <hyperlink ref="A100" r:id="rId197"/>
+    <hyperlink ref="B100" r:id="rId198"/>
+    <hyperlink ref="A101" r:id="rId199"/>
+    <hyperlink ref="B101" r:id="rId200"/>
+    <hyperlink ref="A102" r:id="rId201"/>
+    <hyperlink ref="B102" r:id="rId202"/>
+    <hyperlink ref="A103" r:id="rId203"/>
+    <hyperlink ref="B103" r:id="rId204"/>
+    <hyperlink ref="A104" r:id="rId205"/>
+    <hyperlink ref="B104" r:id="rId206"/>
+    <hyperlink ref="A105" r:id="rId207"/>
+    <hyperlink ref="B105" r:id="rId208"/>
+  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/results_files/Complete/Easy/2-mst_file.xlsx
+++ b/results_files/Complete/Easy/2-mst_file.xlsx
@@ -631,6 +631,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.340803146362305" customWidth="1"/>
+    <col min="2" max="2" width="10.340803146362305" customWidth="1"/>
+    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/results_files/Complete/Easy/2-mst_file.xlsx
+++ b/results_files/Complete/Easy/2-mst_file.xlsx
@@ -631,11 +631,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.340803146362305" customWidth="1"/>
-    <col min="2" max="2" width="10.340803146362305" customWidth="1"/>
-    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
